--- a/Data/Figure2/Figure2A.xlsx
+++ b/Data/Figure2/Figure2A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher.illingworth/Documents/Projects/MPhil_WithinHost/Writeup/Data/Figure2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher.illingworth/Documents/GitHub/IVY/Data/Figure2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED539E92-890D-FB43-9491-4DF750B65760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40100BD1-E88D-F146-9C81-AC2034CAF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="5120" windowWidth="23020" windowHeight="11880" xr2:uid="{96BCCD9A-C9B3-0E43-B7B2-68D0C77CF8E8}"/>
+    <workbookView xWindow="2140" yWindow="5600" windowWidth="23020" windowHeight="11880" xr2:uid="{96BCCD9A-C9B3-0E43-B7B2-68D0C77CF8E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure2A" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -184,6 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +522,7 @@
   <dimension ref="B1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,19 +620,19 @@
         <v>38.576000000000001</v>
       </c>
       <c r="D5">
-        <v>12.831099999999999</v>
+        <v>12.8315</v>
       </c>
       <c r="E5">
-        <v>79.166899999999998</v>
+        <v>79.168499999999995</v>
       </c>
       <c r="F5" s="2">
-        <v>7.9667899999999996</v>
+        <v>7.9667599999999998</v>
       </c>
       <c r="G5">
-        <v>1.6660699999999999</v>
+        <v>1.6660299999999999</v>
       </c>
       <c r="H5">
-        <v>23.086600000000001</v>
+        <v>23.087</v>
       </c>
       <c r="I5" s="2"/>
       <c r="L5" s="2"/>
@@ -658,15 +659,23 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>19.7027</v>
+        <v>19.703499999999998</v>
       </c>
       <c r="D7">
-        <v>5.3825799999999999</v>
+        <v>6.8941100000000004</v>
       </c>
       <c r="E7">
-        <v>42.927500000000002</v>
-      </c>
-      <c r="F7" s="2"/>
+        <v>42.927399999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>11.6335</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="L7" s="2"/>
     </row>
@@ -675,13 +684,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="2">
-        <v>38.811999999999998</v>
+        <v>38.804000000000002</v>
       </c>
       <c r="D8">
         <v>16.375</v>
       </c>
       <c r="E8">
-        <v>76.075199999999995</v>
+        <v>76.075100000000006</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -690,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12.2156</v>
+        <v>12.2157</v>
       </c>
       <c r="I8" s="2"/>
       <c r="L8" s="2"/>
@@ -703,19 +712,19 @@
         <v>15.7622</v>
       </c>
       <c r="D9">
-        <v>4.08779</v>
+        <v>2.55227</v>
       </c>
       <c r="E9">
-        <v>40.2515</v>
+        <v>40.253</v>
       </c>
       <c r="F9" s="2">
-        <v>15.269600000000001</v>
+        <v>36.647199999999998</v>
       </c>
       <c r="G9">
-        <v>3.6674000000000002</v>
+        <v>7.9179599999999999</v>
       </c>
       <c r="H9">
-        <v>40.247900000000001</v>
+        <v>100.42100000000001</v>
       </c>
       <c r="I9" s="2"/>
       <c r="L9" s="2"/>
@@ -725,31 +734,31 @@
         <v>8</v>
       </c>
       <c r="C10" s="2">
-        <v>24.691099999999999</v>
+        <v>24.691500000000001</v>
       </c>
       <c r="D10">
-        <v>15.0274</v>
+        <v>7.9903500000000003</v>
       </c>
       <c r="E10">
-        <v>37.811300000000003</v>
+        <v>56.119500000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>8.55105</v>
+        <v>9.7172099999999997</v>
       </c>
       <c r="G10">
-        <v>3.60378</v>
+        <v>0.42148799999999997</v>
       </c>
       <c r="H10">
-        <v>16.735800000000001</v>
+        <v>35.1462</v>
       </c>
       <c r="I10" s="2">
-        <v>9.7170400000000008</v>
+        <v>8.5507100000000005</v>
       </c>
       <c r="J10">
-        <v>3.0162300000000002</v>
+        <v>1.0424899999999999</v>
       </c>
       <c r="K10">
-        <v>19.413799999999998</v>
+        <v>29.681100000000001</v>
       </c>
       <c r="L10" s="2"/>
     </row>
